--- a/biology/Microbiologie/Cardiobacterium_hominis/Cardiobacterium_hominis.xlsx
+++ b/biology/Microbiologie/Cardiobacterium_hominis/Cardiobacterium_hominis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardiobacterium hominis est un bacille à Gram négatif de croissance lente et difficile, appartenant à la flore oropharyngée de l’être humain. Il peut toutefois être à l’origine de rares cas d’endocardites, comme les autres micro-organismes du groupe HACEK auquel il appartient.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat et pouvoir pathogène</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les endocardites dues à C. hominis se développent préférentiellement sur valves prothétiques, et lors de maladie cardiaque préexistante. Elles touchent surtout les valves aortiques et mitrales, et peuvent compliquer un geste invasif de type endoscopie / coloscopie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les endocardites dues à C. hominis se développent préférentiellement sur valves prothétiques, et lors de maladie cardiaque préexistante. Elles touchent surtout les valves aortiques et mitrales, et peuvent compliquer un geste invasif de type endoscopie / coloscopie.
 L'évolution est en règle générale favorable sous traitement antibiotique adapté, même si le remplacement de la valve touchée peut être nécessaire.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Caractères bactériologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C. hominis est un micro-organisme catalase négatif, oxydase positive, indole-producteur, Gram négatif . [2] Sa morphologie a été classiquement décrite comme hautement pléomorphes et comme prenant irrégulièrement le Gram, bien que des bacilles homogène avec des formes uniformes peuvent être vus à l'ajout d'extrait de levure.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C. hominis est un micro-organisme catalase négatif, oxydase positive, indole-producteur, Gram négatif .  Sa morphologie a été classiquement décrite comme hautement pléomorphes et comme prenant irrégulièrement le Gram, bien que des bacilles homogène avec des formes uniformes peuvent être vus à l'ajout d'extrait de levure.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Sensibilité aux antibiotiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardiobacterium hominis est sensible aux antibiotiques actifs sur les bacilles à Gram négatif, notamment les bêta-lactamines et les aminosides, utilisés en bithérapie dans le cas des endocardites. Parmi les bêta-lactamines, la ceftriaxone est recommandée par l'American Heart Association en première intention. Des souches produisant une bêta-lactamase ont cependant été décrites.
 </t>
